--- a/Test/Lawnmower/T2/Sensors_data_1000021.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.999387632007136</v>
+        <v>0.9341263395850745</v>
       </c>
       <c r="D2" t="n">
-        <v>2.580471272986804e-05</v>
+        <v>0.003018674754876333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02098861036216743</v>
+        <v>0.004651327893294921</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9406689317983423</v>
+        <v>0.9416398634796432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002120282028128776</v>
+        <v>0.002488559914269357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3849842856843795</v>
+        <v>0.003816671132294336</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,43 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8993104498460311</v>
+        <v>0.9956933035149105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005107220602349812</v>
+        <v>0.0001814808528654499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2370649777094792</v>
+        <v>0.04652264747563828</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9876014846596888</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0002993905124969142</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1110241916379924</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
